--- a/biology/Médecine/Deuxième_métatarsien/Deuxième_métatarsien.xlsx
+++ b/biology/Médecine/Deuxième_métatarsien/Deuxième_métatarsien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Deuxi%C3%A8me_m%C3%A9tatarsien</t>
+          <t>Deuxième_métatarsien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Le deuxième métatarsien est un des cinq os long du tarse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Deuxi%C3%A8me_m%C3%A9tatarsien</t>
+          <t>Deuxième_métatarsien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le deuxième métatarsien est le plus long des métatarsiens. Il se prolonge vers vers l'arrière et est maintenu fermement dans l'évidement formé par les trois os cunéiformes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le deuxième métatarsien est le plus long des métatarsiens. Il se prolonge vers vers l'arrière et est maintenu fermement dans l'évidement formé par les trois os cunéiformes.
 Comme les quatre autres métatarsiens, il peut être divisé en trois parties : la base, le corps et la tête.
 Sa base est large au-dessus et étroite et rugueuse en dessous.
 Elle présente quatre facettes articulaires :
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Deuxi%C3%A8me_m%C3%A9tatarsien</t>
+          <t>Deuxième_métatarsien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,6 +567,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Deuxi%C3%A8me_m%C3%A9tatarsien</t>
+          <t>Deuxième_métatarsien</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,8 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pied de Morton
-Un orteil de Morton ou pied de Morton est une élongation osseuse du deuxième métatarsien. C'est une variation normale du deuxième métatarsien présente chez environ 25 % de la population totale. Bien que normal, l'orteil de Morton provoque une sur-inversion du pied. Ce qui sollicite ainsi davantage la partie latérale du ménisque du genou, favorise la lordose du bas du dos (colonne lombaire) et la cyphose du cou (colonne cervicale). Cela peut entraîner des maux de dos, des douleurs au genou et de l'arthrite à un âge précoce, une sensibilité constante de l'épaule, des torticolis aigus et chroniques, des maux de tête et jusqu'à de vagues courbatures non spécifiques.
+          <t>Pied de Morton</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un orteil de Morton ou pied de Morton est une élongation osseuse du deuxième métatarsien. C'est une variation normale du deuxième métatarsien présente chez environ 25 % de la population totale. Bien que normal, l'orteil de Morton provoque une sur-inversion du pied. Ce qui sollicite ainsi davantage la partie latérale du ménisque du genou, favorise la lordose du bas du dos (colonne lombaire) et la cyphose du cou (colonne cervicale). Cela peut entraîner des maux de dos, des douleurs au genou et de l'arthrite à un âge précoce, une sensibilité constante de l'épaule, des torticolis aigus et chroniques, des maux de tête et jusqu'à de vagues courbatures non spécifiques.
 </t>
         </is>
       </c>
@@ -592,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Deuxi%C3%A8me_m%C3%A9tatarsien</t>
+          <t>Deuxième_métatarsien</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +631,9 @@
           <t>Blessures</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet os a été nommé "Beckham bone" dans le milieu journalistique sportif anglophone, littéralement os de Beckham. Ce nom lui a été attribué à la suite de la blessure fortement médiatisée de David Beckham lui ayant occasionné une fracture de ce métatarsien.[réf. souhaitée]
 </t>
